--- a/录音打分课文列表.xlsx
+++ b/录音打分课文列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9D391B3-ED24-4BFA-8A60-94C54353CC25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8BF672B-E14D-4E9E-A31F-66C93B9FA158}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,22 +136,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,110 +455,110 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="46.46484375" customWidth="1"/>
-    <col min="7" max="7" width="17.53125" customWidth="1"/>
+    <col min="4" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>101</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>103</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>

--- a/录音打分课文列表.xlsx
+++ b/录音打分课文列表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8BF672B-E14D-4E9E-A31F-66C93B9FA158}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A66C1EAE-CA0D-45A2-91BB-A0E26DE529DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,14 +458,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="4" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="46.46484375" customWidth="1"/>
+    <col min="7" max="7" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -488,8 +488,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
@@ -504,15 +504,15 @@
       <c r="E3" s="2">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
       <c r="B4" s="2">
         <v>102</v>
       </c>
@@ -532,8 +532,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
       <c r="B5" s="2">
         <v>103</v>
       </c>
@@ -553,12 +553,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
